--- a/lab1_byot/lab1_device_info.xlsx
+++ b/lab1_byot/lab1_device_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B49AC-2B92-3C40-8E37-D8503ACE13B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7517AE-B899-0948-8576-94613322BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>vsrx3</t>
   </si>
   <si>
-    <t>23.1R1.8</t>
-  </si>
-  <si>
     <t>vr</t>
   </si>
   <si>
@@ -381,13 +378,172 @@
   </si>
   <si>
     <t>S-24</t>
+  </si>
+  <si>
+    <t>23.2R1.13</t>
+  </si>
+  <si>
+    <t>ge-0/0/12</t>
+  </si>
+  <si>
+    <t>ge-0/0/13</t>
+  </si>
+  <si>
+    <t>ge-0/0/14</t>
+  </si>
+  <si>
+    <t>ge-0/0/15</t>
+  </si>
+  <si>
+    <t>ge-0/0/16</t>
+  </si>
+  <si>
+    <t>ge-0/0/17</t>
+  </si>
+  <si>
+    <t>ge-0/0/18</t>
+  </si>
+  <si>
+    <t>ge-0/0/19</t>
+  </si>
+  <si>
+    <t>ge-0/0/20</t>
+  </si>
+  <si>
+    <t>ge-0/0/21</t>
+  </si>
+  <si>
+    <t>ge-0/0/22</t>
+  </si>
+  <si>
+    <t>ge-0/0/23</t>
+  </si>
+  <si>
+    <t>ge-0/0/24</t>
+  </si>
+  <si>
+    <t>ge-0/0/25</t>
+  </si>
+  <si>
+    <t>ge-0/0/26</t>
+  </si>
+  <si>
+    <t>ge-0/0/27</t>
+  </si>
+  <si>
+    <t>ge-0/0/28</t>
+  </si>
+  <si>
+    <t>ge-0/0/29</t>
+  </si>
+  <si>
+    <t>ge-0/0/30</t>
+  </si>
+  <si>
+    <t>ge-0/0/31</t>
+  </si>
+  <si>
+    <t>ge-0/0/32</t>
+  </si>
+  <si>
+    <t>ge-0/0/33</t>
+  </si>
+  <si>
+    <t>ge-0/0/34</t>
+  </si>
+  <si>
+    <t>ge-0/0/35</t>
+  </si>
+  <si>
+    <t>ge-0/0/36</t>
+  </si>
+  <si>
+    <t>ge-0/0/37</t>
+  </si>
+  <si>
+    <t>ge-0/0/38</t>
+  </si>
+  <si>
+    <t>ge-0/0/39</t>
+  </si>
+  <si>
+    <t>ge-0/0/40</t>
+  </si>
+  <si>
+    <t>ge-0/0/41</t>
+  </si>
+  <si>
+    <t>ge-0/0/42</t>
+  </si>
+  <si>
+    <t>ge-0/0/43</t>
+  </si>
+  <si>
+    <t>ge-0/0/44</t>
+  </si>
+  <si>
+    <t>ge-0/0/45</t>
+  </si>
+  <si>
+    <t>ge-0/0/46</t>
+  </si>
+  <si>
+    <t>ge-0/0/47</t>
+  </si>
+  <si>
+    <t>ge-0/0/48</t>
+  </si>
+  <si>
+    <t>ge-0/0/49</t>
+  </si>
+  <si>
+    <t>ge-0/0/50</t>
+  </si>
+  <si>
+    <t>ge-0/0/51</t>
+  </si>
+  <si>
+    <t>ge-0/0/52</t>
+  </si>
+  <si>
+    <t>ge-0/0/53</t>
+  </si>
+  <si>
+    <t>ge-0/0/54</t>
+  </si>
+  <si>
+    <t>ge-0/0/55</t>
+  </si>
+  <si>
+    <t>ge-0/0/56</t>
+  </si>
+  <si>
+    <t>ge-0/0/57</t>
+  </si>
+  <si>
+    <t>ge-0/0/58</t>
+  </si>
+  <si>
+    <t>ge-0/0/59</t>
+  </si>
+  <si>
+    <t>ge-0/0/60</t>
+  </si>
+  <si>
+    <t>ge-0/0/61</t>
+  </si>
+  <si>
+    <t>ge-0/0/62</t>
+  </si>
+  <si>
+    <t>ge-0/0/63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +562,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -847,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,43 +1115,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -998,7 +1160,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1027,43 +1189,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1171,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,10 +1349,10 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="71" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1242,10 +1404,172 @@
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1264,39 +1588,39 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1304,10 +1628,64 @@
       <c r="O3" s="4"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1326,39 +1704,39 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1366,10 +1744,64 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1388,39 +1820,39 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1428,10 +1860,64 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1450,39 +1936,39 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1490,10 +1976,64 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1512,54 +2052,108 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1578,54 +2172,108 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1644,39 +2292,39 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1684,10 +2332,64 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1706,39 +2408,39 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1746,10 +2448,64 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+    </row>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1768,39 +2524,39 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="J19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1808,10 +2564,64 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1830,39 +2640,39 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1870,10 +2680,64 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1892,54 +2756,108 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1958,54 +2876,108 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2024,39 +2996,39 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2064,10 +3036,64 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="4"/>
+    </row>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2086,39 +3112,39 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2126,6 +3152,60 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2144,6 +3224,7 @@
     <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A12:Q12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2179,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -2197,40 +3278,40 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2939,6 +4020,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -2948,13 +4036,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3000,7 +4081,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3013,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3121,16 +4202,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/lab1_device_info.xlsx
+++ b/lab1_byot/lab1_device_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7517AE-B899-0948-8576-94613322BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC21D9-C385-564E-BBAD-E4457A088E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -393,150 +393,6 @@
   </si>
   <si>
     <t>ge-0/0/15</t>
-  </si>
-  <si>
-    <t>ge-0/0/16</t>
-  </si>
-  <si>
-    <t>ge-0/0/17</t>
-  </si>
-  <si>
-    <t>ge-0/0/18</t>
-  </si>
-  <si>
-    <t>ge-0/0/19</t>
-  </si>
-  <si>
-    <t>ge-0/0/20</t>
-  </si>
-  <si>
-    <t>ge-0/0/21</t>
-  </si>
-  <si>
-    <t>ge-0/0/22</t>
-  </si>
-  <si>
-    <t>ge-0/0/23</t>
-  </si>
-  <si>
-    <t>ge-0/0/24</t>
-  </si>
-  <si>
-    <t>ge-0/0/25</t>
-  </si>
-  <si>
-    <t>ge-0/0/26</t>
-  </si>
-  <si>
-    <t>ge-0/0/27</t>
-  </si>
-  <si>
-    <t>ge-0/0/28</t>
-  </si>
-  <si>
-    <t>ge-0/0/29</t>
-  </si>
-  <si>
-    <t>ge-0/0/30</t>
-  </si>
-  <si>
-    <t>ge-0/0/31</t>
-  </si>
-  <si>
-    <t>ge-0/0/32</t>
-  </si>
-  <si>
-    <t>ge-0/0/33</t>
-  </si>
-  <si>
-    <t>ge-0/0/34</t>
-  </si>
-  <si>
-    <t>ge-0/0/35</t>
-  </si>
-  <si>
-    <t>ge-0/0/36</t>
-  </si>
-  <si>
-    <t>ge-0/0/37</t>
-  </si>
-  <si>
-    <t>ge-0/0/38</t>
-  </si>
-  <si>
-    <t>ge-0/0/39</t>
-  </si>
-  <si>
-    <t>ge-0/0/40</t>
-  </si>
-  <si>
-    <t>ge-0/0/41</t>
-  </si>
-  <si>
-    <t>ge-0/0/42</t>
-  </si>
-  <si>
-    <t>ge-0/0/43</t>
-  </si>
-  <si>
-    <t>ge-0/0/44</t>
-  </si>
-  <si>
-    <t>ge-0/0/45</t>
-  </si>
-  <si>
-    <t>ge-0/0/46</t>
-  </si>
-  <si>
-    <t>ge-0/0/47</t>
-  </si>
-  <si>
-    <t>ge-0/0/48</t>
-  </si>
-  <si>
-    <t>ge-0/0/49</t>
-  </si>
-  <si>
-    <t>ge-0/0/50</t>
-  </si>
-  <si>
-    <t>ge-0/0/51</t>
-  </si>
-  <si>
-    <t>ge-0/0/52</t>
-  </si>
-  <si>
-    <t>ge-0/0/53</t>
-  </si>
-  <si>
-    <t>ge-0/0/54</t>
-  </si>
-  <si>
-    <t>ge-0/0/55</t>
-  </si>
-  <si>
-    <t>ge-0/0/56</t>
-  </si>
-  <si>
-    <t>ge-0/0/57</t>
-  </si>
-  <si>
-    <t>ge-0/0/58</t>
-  </si>
-  <si>
-    <t>ge-0/0/59</t>
-  </si>
-  <si>
-    <t>ge-0/0/60</t>
-  </si>
-  <si>
-    <t>ge-0/0/61</t>
-  </si>
-  <si>
-    <t>ge-0/0/62</t>
-  </si>
-  <si>
-    <t>ge-0/0/63</t>
   </si>
 </sst>
 </file>
@@ -663,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -685,6 +541,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1333,9 +1192,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
@@ -1349,10 +1208,10 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="71" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="23" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1422,173 +1281,35 @@
       <c r="W1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1634,56 +1355,8 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1377,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1750,56 +1423,8 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -1820,7 +1445,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -1866,56 +1491,8 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="4"/>
-      <c r="BR7" s="4"/>
-      <c r="BS7" s="4"/>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -1936,7 +1513,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1982,56 +1559,8 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +1581,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2102,56 +1631,8 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="4"/>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +1653,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2222,56 +1703,8 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-    </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>41</v>
       </c>
@@ -2292,7 +1725,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -2338,56 +1771,8 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>43</v>
       </c>
@@ -2408,7 +1793,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2454,56 +1839,8 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="BR17" s="2"/>
-      <c r="BS17" s="2"/>
-    </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
@@ -2524,7 +1861,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -2570,56 +1907,8 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -2640,7 +1929,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2686,56 +1975,8 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="2"/>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -2756,7 +1997,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -2806,56 +2047,8 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
-      <c r="BP23" s="4"/>
-      <c r="BQ23" s="4"/>
-      <c r="BR23" s="4"/>
-      <c r="BS23" s="4"/>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +2069,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2926,56 +2119,8 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-    </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -2996,7 +2141,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -3042,56 +2187,8 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-      <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
-      <c r="BL27" s="4"/>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="4"/>
-      <c r="BO27" s="4"/>
-      <c r="BP27" s="4"/>
-      <c r="BQ27" s="4"/>
-      <c r="BR27" s="4"/>
-      <c r="BS27" s="4"/>
-    </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -3112,7 +2209,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3158,62 +2255,14 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
-      <c r="BL29" s="2"/>
-      <c r="BM29" s="2"/>
-      <c r="BN29" s="2"/>
-      <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
-      <c r="BQ29" s="2"/>
-      <c r="BR29" s="2"/>
-      <c r="BS29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:W2"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A10:Q10"/>
@@ -3359,7 +2408,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3447,7 +2496,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3535,7 +2584,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3623,7 +2672,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3667,7 +2716,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3711,7 +2760,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3799,7 +2848,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3887,7 +2936,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3975,7 +3024,7 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>

--- a/lab1_byot/lab1_device_info.xlsx
+++ b/lab1_byot/lab1_device_info.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC21D9-C385-564E-BBAD-E4457A088E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B398281-2AC8-A54A-83E9-51BD4DC09E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74700" yWindow="500" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VEX" sheetId="2" r:id="rId2"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId3"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId4"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId5"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
+    <sheet name="VEX" sheetId="2" r:id="rId3"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -393,6 +394,9 @@
   </si>
   <si>
     <t>ge-0/0/15</t>
+  </si>
+  <si>
+    <t>vrouter</t>
   </si>
 </sst>
 </file>
@@ -868,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1191,6 +1195,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B9127-8FA4-F24E-ABD2-9492F5EE031E}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A12:Q12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
@@ -2278,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -3069,13 +4103,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3085,12 +4112,19 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3217,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>

--- a/lab1_byot/lab1_device_info.xlsx
+++ b/lab1_byot/lab1_device_info.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B398281-2AC8-A54A-83E9-51BD4DC09E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF775F41-F63E-FA42-BFF4-850C67E911A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74700" yWindow="500" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
-    <sheet name="VEX" sheetId="2" r:id="rId3"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
+    <sheet name="VMX" sheetId="7" r:id="rId2"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId3"/>
+    <sheet name="VEX" sheetId="2" r:id="rId4"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId5"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId6"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -261,142 +262,130 @@
     <t>eth2</t>
   </si>
   <si>
-    <t>S-25</t>
-  </si>
-  <si>
-    <t>S-27</t>
-  </si>
-  <si>
-    <t>S-26</t>
-  </si>
-  <si>
-    <t>S-28</t>
-  </si>
-  <si>
-    <t>S-29</t>
-  </si>
-  <si>
-    <t>S-30</t>
-  </si>
-  <si>
-    <t>S-31</t>
-  </si>
-  <si>
-    <t>S-32</t>
-  </si>
-  <si>
-    <t>S-33</t>
-  </si>
-  <si>
-    <t>S-35</t>
-  </si>
-  <si>
-    <t>S-34</t>
-  </si>
-  <si>
-    <t>S-36</t>
-  </si>
-  <si>
-    <t>S-37</t>
-  </si>
-  <si>
-    <t>S-38</t>
-  </si>
-  <si>
-    <t>S-39</t>
-  </si>
-  <si>
-    <t>S-40</t>
-  </si>
-  <si>
-    <t>S-1</t>
-  </si>
-  <si>
-    <t>S-2</t>
-  </si>
-  <si>
-    <t>S-3</t>
-  </si>
-  <si>
-    <t>S-4</t>
-  </si>
-  <si>
-    <t>S-5</t>
-  </si>
-  <si>
-    <t>S-6</t>
-  </si>
-  <si>
-    <t>S-7</t>
-  </si>
-  <si>
-    <t>S-8</t>
-  </si>
-  <si>
-    <t>S-17</t>
-  </si>
-  <si>
-    <t>S-18</t>
-  </si>
-  <si>
-    <t>S-19</t>
-  </si>
-  <si>
-    <t>S-20</t>
-  </si>
-  <si>
-    <t>S-9</t>
-  </si>
-  <si>
-    <t>S-10</t>
-  </si>
-  <si>
-    <t>S-11</t>
-  </si>
-  <si>
-    <t>S-12</t>
-  </si>
-  <si>
-    <t>S-13</t>
-  </si>
-  <si>
-    <t>S-14</t>
-  </si>
-  <si>
-    <t>S-15</t>
-  </si>
-  <si>
-    <t>S-16</t>
-  </si>
-  <si>
-    <t>S-21</t>
-  </si>
-  <si>
-    <t>S-22</t>
-  </si>
-  <si>
-    <t>S-23</t>
-  </si>
-  <si>
-    <t>S-24</t>
-  </si>
-  <si>
     <t>23.2R1.13</t>
   </si>
   <si>
     <t>ge-0/0/12</t>
   </si>
   <si>
-    <t>ge-0/0/13</t>
-  </si>
-  <si>
-    <t>ge-0/0/14</t>
-  </si>
-  <si>
-    <t>ge-0/0/15</t>
-  </si>
-  <si>
-    <t>vrouter</t>
+    <t>D-25</t>
+  </si>
+  <si>
+    <t>D-27</t>
+  </si>
+  <si>
+    <t>D-26</t>
+  </si>
+  <si>
+    <t>D-28</t>
+  </si>
+  <si>
+    <t>D-29</t>
+  </si>
+  <si>
+    <t>D-30</t>
+  </si>
+  <si>
+    <t>D-31</t>
+  </si>
+  <si>
+    <t>D-32</t>
+  </si>
+  <si>
+    <t>D-33</t>
+  </si>
+  <si>
+    <t>D-35</t>
+  </si>
+  <si>
+    <t>D-34</t>
+  </si>
+  <si>
+    <t>D-36</t>
+  </si>
+  <si>
+    <t>D-37</t>
+  </si>
+  <si>
+    <t>D-38</t>
+  </si>
+  <si>
+    <t>D-39</t>
+  </si>
+  <si>
+    <t>D-40</t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-2</t>
+  </si>
+  <si>
+    <t>D-3</t>
+  </si>
+  <si>
+    <t>D-4</t>
+  </si>
+  <si>
+    <t>D-5</t>
+  </si>
+  <si>
+    <t>D-6</t>
+  </si>
+  <si>
+    <t>D-7</t>
+  </si>
+  <si>
+    <t>D-8</t>
+  </si>
+  <si>
+    <t>D-17</t>
+  </si>
+  <si>
+    <t>D-18</t>
+  </si>
+  <si>
+    <t>D-19</t>
+  </si>
+  <si>
+    <t>D-20</t>
+  </si>
+  <si>
+    <t>D-9</t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>D-11</t>
+  </si>
+  <si>
+    <t>D-12</t>
+  </si>
+  <si>
+    <t>D-13</t>
+  </si>
+  <si>
+    <t>D-14</t>
+  </si>
+  <si>
+    <t>D-15</t>
+  </si>
+  <si>
+    <t>D-16</t>
+  </si>
+  <si>
+    <t>D-21</t>
+  </si>
+  <si>
+    <t>D-22</t>
+  </si>
+  <si>
+    <t>D-23</t>
+  </si>
+  <si>
+    <t>D-24</t>
   </si>
 </sst>
 </file>
@@ -523,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -545,9 +534,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,7 +859,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -978,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -993,28 +979,28 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1052,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -1067,28 +1053,28 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1195,11 +1181,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B9127-8FA4-F24E-ABD2-9492F5EE031E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1053957-A1B3-6845-B9BF-FF700EC4D999}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188B685-CDFB-7E44-9EF3-12D2CBA9CCCA}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1274,13 +1925,11 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1299,39 +1948,17 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1343,9 +1970,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1364,39 +1989,17 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1408,9 +2011,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="A6" s="15"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1429,39 +2030,17 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1473,9 +2052,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1494,39 +2071,17 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1538,9 +2093,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1559,45 +2112,19 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1607,9 +2134,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1628,45 +2153,19 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1676,9 +2175,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1697,39 +2194,17 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1741,9 +2216,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1762,39 +2235,17 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1806,9 +2257,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1827,39 +2276,17 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1871,9 +2298,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1892,39 +2317,17 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1936,9 +2339,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1957,45 +2358,19 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2005,9 +2380,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2026,45 +2399,19 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2074,9 +2421,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2095,39 +2440,17 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2139,9 +2462,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2160,39 +2481,17 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2205,6 +2504,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2213,23 +2518,18 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A12:Q12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2242,10 +2542,10 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2297,53 +2597,29 @@
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2366,16 +2642,16 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2383,14 +2659,8 @@
       <c r="O3" s="4"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2681,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -2434,16 +2704,16 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2451,14 +2721,8 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -2479,7 +2743,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2502,16 +2766,16 @@
         <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2519,14 +2783,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +2805,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2570,16 +2828,16 @@
         <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2587,14 +2845,8 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -2615,7 +2867,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2638,35 +2890,29 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
@@ -2687,7 +2933,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2710,35 +2956,29 @@
         <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>41</v>
       </c>
@@ -2759,7 +2999,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -2782,16 +3022,16 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2799,14 +3039,8 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +3061,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2850,16 +3084,16 @@
         <v>23</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2867,14 +3101,8 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
@@ -2895,7 +3123,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -2918,16 +3146,16 @@
         <v>23</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -2935,14 +3163,8 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -2963,7 +3185,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2986,16 +3208,16 @@
         <v>23</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3003,14 +3225,8 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -3031,7 +3247,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -3054,35 +3270,29 @@
         <v>23</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
@@ -3103,7 +3313,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3126,35 +3336,29 @@
         <v>23</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -3175,7 +3379,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -3198,16 +3402,16 @@
         <v>23</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -3215,14 +3419,8 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -3243,7 +3441,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3266,16 +3464,16 @@
         <v>23</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3283,20 +3481,14 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:W2"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A10:Q10"/>
@@ -3307,12 +3499,11 @@
     <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A12:Q12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -3442,7 +3633,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3530,7 +3721,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3618,7 +3809,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3706,7 +3897,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3750,7 +3941,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3794,7 +3985,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3882,7 +4073,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3970,7 +4161,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -4058,7 +4249,7 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -4103,6 +4294,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -4112,19 +4310,12 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4251,7 +4442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
